--- a/7/1/1/3/3/1/Series desestacionalizadas 1996 a 2021 - Trimestral.xlsx
+++ b/7/1/1/3/3/1/Series desestacionalizadas 1996 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>Serie</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -776,7 +779,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4746,13 +4749,13 @@
         <v>63</v>
       </c>
       <c r="G50">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="H50">
         <v>64.40000000000001</v>
       </c>
       <c r="K50">
-        <v>168.6</v>
+        <v>168.7</v>
       </c>
       <c r="L50">
         <v>56.1</v>
@@ -4761,7 +4764,7 @@
         <v>103.4</v>
       </c>
       <c r="N50">
-        <v>59.1</v>
+        <v>59.3</v>
       </c>
       <c r="Q50">
         <v>85.90000000000001</v>
@@ -4800,7 +4803,7 @@
         <v>84.59999999999999</v>
       </c>
       <c r="AG50">
-        <v>131</v>
+        <v>131.1</v>
       </c>
       <c r="AH50">
         <v>84.40000000000001</v>
@@ -4826,7 +4829,7 @@
         <v>71.8</v>
       </c>
       <c r="G51">
-        <v>73.2</v>
+        <v>73</v>
       </c>
       <c r="H51">
         <v>67.40000000000001</v>
@@ -4841,7 +4844,7 @@
         <v>105.1</v>
       </c>
       <c r="N51">
-        <v>72.40000000000001</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="Q51">
         <v>93.5</v>
@@ -4880,7 +4883,7 @@
         <v>87.8</v>
       </c>
       <c r="AG51">
-        <v>127.4</v>
+        <v>127.5</v>
       </c>
       <c r="AH51">
         <v>83.5</v>
@@ -4903,13 +4906,13 @@
         <v>81.09999999999999</v>
       </c>
       <c r="F52">
-        <v>88</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="G52">
-        <v>76</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="H52">
-        <v>71.09999999999999</v>
+        <v>71</v>
       </c>
       <c r="K52">
         <v>140.3</v>
@@ -4921,7 +4924,7 @@
         <v>110.4</v>
       </c>
       <c r="N52">
-        <v>71.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="Q52">
         <v>100.8</v>
@@ -4960,10 +4963,10 @@
         <v>91.40000000000001</v>
       </c>
       <c r="AG52">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="AH52">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:34">
@@ -4986,7 +4989,7 @@
         <v>100.3</v>
       </c>
       <c r="G53">
-        <v>84.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="H53">
         <v>78.5</v>
@@ -5001,7 +5004,7 @@
         <v>106</v>
       </c>
       <c r="N53">
-        <v>85.09999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="Q53">
         <v>93.8</v>
@@ -5022,7 +5025,7 @@
         <v>95.3</v>
       </c>
       <c r="Y53">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="Z53">
         <v>83.5</v>
@@ -5040,7 +5043,7 @@
         <v>92.59999999999999</v>
       </c>
       <c r="AG53">
-        <v>109.7</v>
+        <v>109.8</v>
       </c>
       <c r="AH53">
         <v>81.2</v>
@@ -5072,7 +5075,7 @@
         <v>80.8</v>
       </c>
       <c r="K54">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="L54">
         <v>97.59999999999999</v>
@@ -5120,7 +5123,7 @@
         <v>90.2</v>
       </c>
       <c r="AG54">
-        <v>120.1</v>
+        <v>120.2</v>
       </c>
       <c r="AH54">
         <v>82.90000000000001</v>
@@ -5161,7 +5164,7 @@
         <v>82.90000000000001</v>
       </c>
       <c r="N55">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="Q55">
         <v>85.2</v>
@@ -5200,7 +5203,7 @@
         <v>89.40000000000001</v>
       </c>
       <c r="AG55">
-        <v>111.5</v>
+        <v>111.6</v>
       </c>
       <c r="AH55">
         <v>85.2</v>
@@ -5250,7 +5253,7 @@
         <v>84.5</v>
       </c>
       <c r="S56">
-        <v>112.9</v>
+        <v>112.8</v>
       </c>
       <c r="T56">
         <v>92.2</v>
@@ -5360,7 +5363,7 @@
         <v>88</v>
       </c>
       <c r="AG57">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="AH57">
         <v>89.8</v>
@@ -5371,7 +5374,7 @@
         <v>90</v>
       </c>
       <c r="B58">
-        <v>87.5</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="C58">
         <v>120.1</v>
@@ -5440,7 +5443,7 @@
         <v>89.2</v>
       </c>
       <c r="AG58">
-        <v>112.5</v>
+        <v>112.6</v>
       </c>
       <c r="AH58">
         <v>91.09999999999999</v>
@@ -5481,7 +5484,7 @@
         <v>122.4</v>
       </c>
       <c r="N59">
-        <v>71.3</v>
+        <v>71.5</v>
       </c>
       <c r="Q59">
         <v>117.5</v>
@@ -5561,7 +5564,7 @@
         <v>126.4</v>
       </c>
       <c r="N60">
-        <v>79.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="Q60">
         <v>120</v>
@@ -5600,7 +5603,7 @@
         <v>91.3</v>
       </c>
       <c r="AG60">
-        <v>120.5</v>
+        <v>120.6</v>
       </c>
       <c r="AH60">
         <v>95.59999999999999</v>
@@ -5629,7 +5632,7 @@
         <v>90.59999999999999</v>
       </c>
       <c r="H61">
-        <v>84.90000000000001</v>
+        <v>85</v>
       </c>
       <c r="K61">
         <v>123.6</v>
@@ -5680,7 +5683,7 @@
         <v>91.2</v>
       </c>
       <c r="AG61">
-        <v>110.8</v>
+        <v>110.9</v>
       </c>
       <c r="AH61">
         <v>97.3</v>
@@ -5733,7 +5736,7 @@
         <v>111.7</v>
       </c>
       <c r="T62">
-        <v>88</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="U62">
         <v>92.8</v>
@@ -5760,7 +5763,7 @@
         <v>93.09999999999999</v>
       </c>
       <c r="AG62">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AH62">
         <v>97.59999999999999</v>
@@ -5881,7 +5884,7 @@
         <v>110.2</v>
       </c>
       <c r="N64">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="Q64">
         <v>107</v>
@@ -5920,7 +5923,7 @@
         <v>95.8</v>
       </c>
       <c r="AG64">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="AH64">
         <v>96.3</v>
@@ -5961,7 +5964,7 @@
         <v>102.5</v>
       </c>
       <c r="N65">
-        <v>95.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="Q65">
         <v>94.90000000000001</v>
@@ -5976,7 +5979,7 @@
         <v>91.2</v>
       </c>
       <c r="U65">
-        <v>94.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="X65">
         <v>92</v>
@@ -6011,7 +6014,7 @@
         <v>98</v>
       </c>
       <c r="B66">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="C66">
         <v>73.5</v>
@@ -6080,7 +6083,7 @@
         <v>98.3</v>
       </c>
       <c r="AG66">
-        <v>109.7</v>
+        <v>109.8</v>
       </c>
       <c r="AH66">
         <v>97.8</v>
@@ -6160,7 +6163,7 @@
         <v>98.09999999999999</v>
       </c>
       <c r="AG67">
-        <v>113.1</v>
+        <v>113.2</v>
       </c>
       <c r="AH67">
         <v>97.2</v>
@@ -6189,7 +6192,7 @@
         <v>93</v>
       </c>
       <c r="H68">
-        <v>92.3</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="K68">
         <v>111.5</v>
@@ -6201,7 +6204,7 @@
         <v>86</v>
       </c>
       <c r="N68">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="Q68">
         <v>86.59999999999999</v>
@@ -6240,7 +6243,7 @@
         <v>98</v>
       </c>
       <c r="AG68">
-        <v>113.7</v>
+        <v>113.8</v>
       </c>
       <c r="AH68">
         <v>97.59999999999999</v>
@@ -6272,7 +6275,7 @@
         <v>93.2</v>
       </c>
       <c r="K69">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="L69">
         <v>91.09999999999999</v>
@@ -6320,7 +6323,7 @@
         <v>98.3</v>
       </c>
       <c r="AG69">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="AH69">
         <v>99.5</v>
@@ -6331,7 +6334,7 @@
         <v>102</v>
       </c>
       <c r="B70">
-        <v>94.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C70">
         <v>79.90000000000001</v>
@@ -6355,10 +6358,10 @@
         <v>94.3</v>
       </c>
       <c r="J70">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="K70">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="L70">
         <v>87.40000000000001</v>
@@ -6367,7 +6370,7 @@
         <v>96.09999999999999</v>
       </c>
       <c r="N70">
-        <v>95.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="O70">
         <v>94.7</v>
@@ -6391,7 +6394,7 @@
         <v>97.90000000000001</v>
       </c>
       <c r="V70">
-        <v>97.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="W70">
         <v>98.2</v>
@@ -6424,7 +6427,7 @@
         <v>98.2</v>
       </c>
       <c r="AG70">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="AH70">
         <v>98.09999999999999</v>
@@ -6435,7 +6438,7 @@
         <v>103</v>
       </c>
       <c r="B71">
-        <v>95.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="C71">
         <v>87.8</v>
@@ -6453,7 +6456,7 @@
         <v>98.90000000000001</v>
       </c>
       <c r="H71">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="I71">
         <v>97.90000000000001</v>
@@ -6462,7 +6465,7 @@
         <v>99</v>
       </c>
       <c r="K71">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="L71">
         <v>99</v>
@@ -6528,7 +6531,7 @@
         <v>99.09999999999999</v>
       </c>
       <c r="AG71">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="AH71">
         <v>98.7</v>
@@ -6643,7 +6646,7 @@
         <v>105</v>
       </c>
       <c r="B73">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="C73">
         <v>123.6</v>
@@ -6658,7 +6661,7 @@
         <v>96.8</v>
       </c>
       <c r="G73">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="H73">
         <v>105.5</v>
@@ -6685,7 +6688,7 @@
         <v>103.1</v>
       </c>
       <c r="P73">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="Q73">
         <v>99.7</v>
@@ -6727,7 +6730,7 @@
         <v>101.4</v>
       </c>
       <c r="AD73">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="AE73">
         <v>105.3</v>
@@ -6765,13 +6768,13 @@
         <v>105</v>
       </c>
       <c r="H74">
-        <v>112.2</v>
+        <v>112.1</v>
       </c>
       <c r="I74">
         <v>115.4</v>
       </c>
       <c r="J74">
-        <v>105.1</v>
+        <v>104.9</v>
       </c>
       <c r="K74">
         <v>104.2</v>
@@ -6816,7 +6819,7 @@
         <v>98.40000000000001</v>
       </c>
       <c r="Y74">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="Z74">
         <v>100.4</v>
@@ -6840,7 +6843,7 @@
         <v>103.4</v>
       </c>
       <c r="AG74">
-        <v>109.3</v>
+        <v>109.4</v>
       </c>
       <c r="AH74">
         <v>103.1</v>
@@ -6851,7 +6854,7 @@
         <v>107</v>
       </c>
       <c r="B75">
-        <v>112.5</v>
+        <v>112.6</v>
       </c>
       <c r="C75">
         <v>122.6</v>
@@ -6887,10 +6890,10 @@
         <v>114</v>
       </c>
       <c r="N75">
-        <v>97.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="O75">
-        <v>112.1</v>
+        <v>112.2</v>
       </c>
       <c r="P75">
         <v>90.59999999999999</v>
@@ -6935,7 +6938,7 @@
         <v>103.9</v>
       </c>
       <c r="AD75">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="AE75">
         <v>105.9</v>
@@ -6944,7 +6947,7 @@
         <v>105.8</v>
       </c>
       <c r="AG75">
-        <v>115.8</v>
+        <v>115.9</v>
       </c>
       <c r="AH75">
         <v>104.9</v>
@@ -6970,19 +6973,19 @@
         <v>86.7</v>
       </c>
       <c r="G76">
-        <v>113</v>
+        <v>113.1</v>
       </c>
       <c r="H76">
-        <v>115.9</v>
+        <v>116</v>
       </c>
       <c r="I76">
-        <v>117.5</v>
+        <v>117.6</v>
       </c>
       <c r="J76">
-        <v>112.6</v>
+        <v>112.7</v>
       </c>
       <c r="K76">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="L76">
         <v>130.6</v>
@@ -6991,10 +6994,10 @@
         <v>119.3</v>
       </c>
       <c r="N76">
-        <v>112</v>
+        <v>111.9</v>
       </c>
       <c r="O76">
-        <v>130.8</v>
+        <v>130.9</v>
       </c>
       <c r="P76">
         <v>101.9</v>
@@ -7048,7 +7051,7 @@
         <v>107.3</v>
       </c>
       <c r="AG76">
-        <v>115.5</v>
+        <v>115.6</v>
       </c>
       <c r="AH76">
         <v>107</v>
@@ -7059,7 +7062,7 @@
         <v>109</v>
       </c>
       <c r="B77">
-        <v>123.9</v>
+        <v>123.8</v>
       </c>
       <c r="C77">
         <v>135.3</v>
@@ -7077,7 +7080,7 @@
         <v>117.4</v>
       </c>
       <c r="H77">
-        <v>122.2</v>
+        <v>122.3</v>
       </c>
       <c r="I77">
         <v>123.6</v>
@@ -7095,10 +7098,10 @@
         <v>128.6</v>
       </c>
       <c r="N77">
-        <v>117</v>
+        <v>116.9</v>
       </c>
       <c r="O77">
-        <v>143.5</v>
+        <v>143.7</v>
       </c>
       <c r="P77">
         <v>104.4</v>
@@ -7107,7 +7110,7 @@
         <v>97.5</v>
       </c>
       <c r="R77">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="S77">
         <v>105.8</v>
@@ -7152,7 +7155,7 @@
         <v>109.3</v>
       </c>
       <c r="AG77">
-        <v>126.7</v>
+        <v>126.8</v>
       </c>
       <c r="AH77">
         <v>108.5</v>
@@ -7178,7 +7181,7 @@
         <v>78.7</v>
       </c>
       <c r="G78">
-        <v>121.5</v>
+        <v>121.4</v>
       </c>
       <c r="H78">
         <v>129.9</v>
@@ -7187,7 +7190,7 @@
         <v>132</v>
       </c>
       <c r="J78">
-        <v>125.6</v>
+        <v>125.5</v>
       </c>
       <c r="K78">
         <v>95.2</v>
@@ -7199,19 +7202,19 @@
         <v>128</v>
       </c>
       <c r="N78">
-        <v>119.9</v>
+        <v>119.8</v>
       </c>
       <c r="O78">
-        <v>160.9</v>
+        <v>161</v>
       </c>
       <c r="P78">
         <v>99.3</v>
       </c>
       <c r="Q78">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="R78">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="S78">
         <v>117.5</v>
@@ -7232,7 +7235,7 @@
         <v>117.1</v>
       </c>
       <c r="Y78">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="Z78">
         <v>106.1</v>
@@ -7247,16 +7250,16 @@
         <v>109.5</v>
       </c>
       <c r="AD78">
-        <v>109.9</v>
+        <v>109.8</v>
       </c>
       <c r="AE78">
         <v>111.9</v>
       </c>
       <c r="AF78">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="AG78">
-        <v>112.1</v>
+        <v>112.2</v>
       </c>
       <c r="AH78">
         <v>109.8</v>
@@ -7267,7 +7270,7 @@
         <v>111</v>
       </c>
       <c r="B79">
-        <v>119.1</v>
+        <v>119.3</v>
       </c>
       <c r="C79">
         <v>68.2</v>
@@ -7303,10 +7306,10 @@
         <v>127.4</v>
       </c>
       <c r="N79">
-        <v>117.2</v>
+        <v>117.4</v>
       </c>
       <c r="O79">
-        <v>145.4</v>
+        <v>145.5</v>
       </c>
       <c r="P79">
         <v>102.7</v>
@@ -7315,7 +7318,7 @@
         <v>106.4</v>
       </c>
       <c r="R79">
-        <v>108</v>
+        <v>108.1</v>
       </c>
       <c r="S79">
         <v>128.7</v>
@@ -7360,7 +7363,7 @@
         <v>113</v>
       </c>
       <c r="AG79">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="AH79">
         <v>110.8</v>
@@ -7407,10 +7410,10 @@
         <v>149.1</v>
       </c>
       <c r="N80">
-        <v>124</v>
+        <v>123.9</v>
       </c>
       <c r="O80">
-        <v>159.5</v>
+        <v>159.6</v>
       </c>
       <c r="P80">
         <v>105.8</v>
@@ -7419,7 +7422,7 @@
         <v>97</v>
       </c>
       <c r="R80">
-        <v>108.8</v>
+        <v>108.9</v>
       </c>
       <c r="S80">
         <v>126.1</v>
@@ -7464,7 +7467,7 @@
         <v>114.9</v>
       </c>
       <c r="AG80">
-        <v>119.4</v>
+        <v>119.5</v>
       </c>
       <c r="AH80">
         <v>111.6</v>
@@ -7475,7 +7478,7 @@
         <v>113</v>
       </c>
       <c r="B81">
-        <v>127.9</v>
+        <v>127.8</v>
       </c>
       <c r="C81">
         <v>117</v>
@@ -7499,7 +7502,7 @@
         <v>128.5</v>
       </c>
       <c r="J81">
-        <v>126.3</v>
+        <v>126.4</v>
       </c>
       <c r="K81">
         <v>93.3</v>
@@ -7511,10 +7514,10 @@
         <v>150.6</v>
       </c>
       <c r="N81">
-        <v>113.7</v>
+        <v>113.8</v>
       </c>
       <c r="O81">
-        <v>130.5</v>
+        <v>130.6</v>
       </c>
       <c r="P81">
         <v>105.1</v>
@@ -7568,7 +7571,7 @@
         <v>116.5</v>
       </c>
       <c r="AG81">
-        <v>133.1</v>
+        <v>133.2</v>
       </c>
       <c r="AH81">
         <v>112.4</v>
@@ -7579,7 +7582,7 @@
         <v>114</v>
       </c>
       <c r="B82">
-        <v>130.3</v>
+        <v>130.2</v>
       </c>
       <c r="C82">
         <v>96.2</v>
@@ -7603,10 +7606,10 @@
         <v>133.2</v>
       </c>
       <c r="J82">
-        <v>129.9</v>
+        <v>129.8</v>
       </c>
       <c r="K82">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="L82">
         <v>141.3</v>
@@ -7618,7 +7621,7 @@
         <v>114.7</v>
       </c>
       <c r="O82">
-        <v>150.4</v>
+        <v>150.5</v>
       </c>
       <c r="P82">
         <v>96.3</v>
@@ -7627,7 +7630,7 @@
         <v>97.5</v>
       </c>
       <c r="R82">
-        <v>115.8</v>
+        <v>115.6</v>
       </c>
       <c r="S82">
         <v>135.6</v>
@@ -7651,13 +7654,13 @@
         <v>96</v>
       </c>
       <c r="Z82">
-        <v>111</v>
+        <v>111.1</v>
       </c>
       <c r="AA82">
         <v>101.5</v>
       </c>
       <c r="AB82">
-        <v>115.7</v>
+        <v>115.8</v>
       </c>
       <c r="AC82">
         <v>117.8</v>
@@ -7683,7 +7686,7 @@
         <v>115</v>
       </c>
       <c r="B83">
-        <v>128</v>
+        <v>128.2</v>
       </c>
       <c r="C83">
         <v>102.6</v>
@@ -7701,13 +7704,13 @@
         <v>123.8</v>
       </c>
       <c r="H83">
-        <v>135.7</v>
+        <v>135.8</v>
       </c>
       <c r="I83">
-        <v>140.3</v>
+        <v>140.4</v>
       </c>
       <c r="J83">
-        <v>126.4</v>
+        <v>126.6</v>
       </c>
       <c r="K83">
         <v>101</v>
@@ -7722,7 +7725,7 @@
         <v>111.1</v>
       </c>
       <c r="O83">
-        <v>136.6</v>
+        <v>136.7</v>
       </c>
       <c r="P83">
         <v>98</v>
@@ -7737,13 +7740,13 @@
         <v>139.9</v>
       </c>
       <c r="T83">
-        <v>120.3</v>
+        <v>120.2</v>
       </c>
       <c r="U83">
         <v>121.4</v>
       </c>
       <c r="V83">
-        <v>120.6</v>
+        <v>120.7</v>
       </c>
       <c r="W83">
         <v>125</v>
@@ -7767,7 +7770,7 @@
         <v>119.5</v>
       </c>
       <c r="AD83">
-        <v>115.2</v>
+        <v>115.3</v>
       </c>
       <c r="AE83">
         <v>120.3</v>
@@ -7776,7 +7779,7 @@
         <v>116.5</v>
       </c>
       <c r="AG83">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="AH83">
         <v>114.8</v>
@@ -7790,7 +7793,7 @@
         <v>138.8</v>
       </c>
       <c r="C84">
-        <v>154.4</v>
+        <v>154.3</v>
       </c>
       <c r="D84">
         <v>91.5</v>
@@ -7811,10 +7814,10 @@
         <v>139.8</v>
       </c>
       <c r="J84">
-        <v>123.2</v>
+        <v>123.3</v>
       </c>
       <c r="K84">
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="L84">
         <v>134.7</v>
@@ -7823,10 +7826,10 @@
         <v>128.5</v>
       </c>
       <c r="N84">
-        <v>116.2</v>
+        <v>116.3</v>
       </c>
       <c r="O84">
-        <v>139.5</v>
+        <v>139.6</v>
       </c>
       <c r="P84">
         <v>104.2</v>
@@ -7844,10 +7847,10 @@
         <v>121.5</v>
       </c>
       <c r="U84">
-        <v>124.9</v>
+        <v>124.8</v>
       </c>
       <c r="V84">
-        <v>124.2</v>
+        <v>124.1</v>
       </c>
       <c r="W84">
         <v>128.2</v>
@@ -7856,10 +7859,10 @@
         <v>120.2</v>
       </c>
       <c r="Y84">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="Z84">
-        <v>114.1</v>
+        <v>114</v>
       </c>
       <c r="AA84">
         <v>103.5</v>
@@ -7891,7 +7894,7 @@
         <v>117</v>
       </c>
       <c r="B85">
-        <v>135.6</v>
+        <v>135.4</v>
       </c>
       <c r="C85">
         <v>185.8</v>
@@ -7915,10 +7918,10 @@
         <v>140.8</v>
       </c>
       <c r="J85">
-        <v>122.6</v>
+        <v>122.5</v>
       </c>
       <c r="K85">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="L85">
         <v>136.3</v>
@@ -7930,7 +7933,7 @@
         <v>113.4</v>
       </c>
       <c r="O85">
-        <v>141.9</v>
+        <v>142</v>
       </c>
       <c r="P85">
         <v>98.59999999999999</v>
@@ -7939,13 +7942,13 @@
         <v>86.8</v>
       </c>
       <c r="R85">
-        <v>114</v>
+        <v>114.1</v>
       </c>
       <c r="S85">
         <v>128.8</v>
       </c>
       <c r="T85">
-        <v>122.7</v>
+        <v>122.8</v>
       </c>
       <c r="U85">
         <v>124.9</v>
@@ -7954,7 +7957,7 @@
         <v>123.9</v>
       </c>
       <c r="W85">
-        <v>129.9</v>
+        <v>130</v>
       </c>
       <c r="X85">
         <v>117.6</v>
@@ -7975,7 +7978,7 @@
         <v>123.2</v>
       </c>
       <c r="AD85">
-        <v>120.8</v>
+        <v>120.7</v>
       </c>
       <c r="AE85">
         <v>121</v>
@@ -7984,7 +7987,7 @@
         <v>118.2</v>
       </c>
       <c r="AG85">
-        <v>122.5</v>
+        <v>122.6</v>
       </c>
       <c r="AH85">
         <v>118.5</v>
@@ -7995,7 +7998,7 @@
         <v>118</v>
       </c>
       <c r="B86">
-        <v>134.6</v>
+        <v>134.5</v>
       </c>
       <c r="C86">
         <v>149.7</v>
@@ -8010,19 +8013,19 @@
         <v>109.4</v>
       </c>
       <c r="G86">
-        <v>121.7</v>
+        <v>121.6</v>
       </c>
       <c r="H86">
-        <v>138.2</v>
+        <v>138</v>
       </c>
       <c r="I86">
-        <v>145</v>
+        <v>144.9</v>
       </c>
       <c r="J86">
-        <v>124.1</v>
+        <v>123.8</v>
       </c>
       <c r="K86">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="L86">
         <v>131.8</v>
@@ -8043,7 +8046,7 @@
         <v>93.59999999999999</v>
       </c>
       <c r="R86">
-        <v>113.2</v>
+        <v>113.1</v>
       </c>
       <c r="S86">
         <v>130.1</v>
@@ -8055,7 +8058,7 @@
         <v>124.5</v>
       </c>
       <c r="V86">
-        <v>122.8</v>
+        <v>122.9</v>
       </c>
       <c r="W86">
         <v>132.1</v>
@@ -8067,28 +8070,28 @@
         <v>93.8</v>
       </c>
       <c r="Z86">
-        <v>115.7</v>
+        <v>115.8</v>
       </c>
       <c r="AA86">
         <v>104.7</v>
       </c>
       <c r="AB86">
-        <v>121.2</v>
+        <v>121.4</v>
       </c>
       <c r="AC86">
         <v>126.1</v>
       </c>
       <c r="AD86">
-        <v>120.1</v>
+        <v>120</v>
       </c>
       <c r="AE86">
-        <v>125.7</v>
+        <v>125.6</v>
       </c>
       <c r="AF86">
         <v>119.4</v>
       </c>
       <c r="AG86">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="AH86">
         <v>118.9</v>
@@ -8099,10 +8102,10 @@
         <v>119</v>
       </c>
       <c r="B87">
-        <v>135.4</v>
+        <v>135.8</v>
       </c>
       <c r="C87">
-        <v>130.8</v>
+        <v>130.9</v>
       </c>
       <c r="D87">
         <v>115.6</v>
@@ -8117,16 +8120,16 @@
         <v>124.2</v>
       </c>
       <c r="H87">
-        <v>138.9</v>
+        <v>139.1</v>
       </c>
       <c r="I87">
-        <v>146.7</v>
+        <v>146.9</v>
       </c>
       <c r="J87">
-        <v>122.1</v>
+        <v>122.4</v>
       </c>
       <c r="K87">
-        <v>95.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="L87">
         <v>137.8</v>
@@ -8144,25 +8147,25 @@
         <v>92.8</v>
       </c>
       <c r="Q87">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="R87">
-        <v>112.5</v>
+        <v>112.4</v>
       </c>
       <c r="S87">
         <v>128.2</v>
       </c>
       <c r="T87">
-        <v>125.3</v>
+        <v>125.2</v>
       </c>
       <c r="U87">
         <v>124.9</v>
       </c>
       <c r="V87">
-        <v>123</v>
+        <v>123.1</v>
       </c>
       <c r="W87">
-        <v>134.1</v>
+        <v>134</v>
       </c>
       <c r="X87">
         <v>120.4</v>
@@ -8171,19 +8174,19 @@
         <v>93.59999999999999</v>
       </c>
       <c r="Z87">
-        <v>117.2</v>
+        <v>117.1</v>
       </c>
       <c r="AA87">
         <v>104.9</v>
       </c>
       <c r="AB87">
-        <v>123.3</v>
+        <v>123.2</v>
       </c>
       <c r="AC87">
-        <v>128.7</v>
+        <v>128.8</v>
       </c>
       <c r="AD87">
-        <v>122.3</v>
+        <v>122.6</v>
       </c>
       <c r="AE87">
         <v>124.6</v>
@@ -8192,10 +8195,10 @@
         <v>120.7</v>
       </c>
       <c r="AG87">
-        <v>124.7</v>
+        <v>124.8</v>
       </c>
       <c r="AH87">
-        <v>121.3</v>
+        <v>121.4</v>
       </c>
     </row>
     <row r="88" spans="1:34">
@@ -8224,13 +8227,13 @@
         <v>132.8</v>
       </c>
       <c r="I88">
-        <v>138.7</v>
+        <v>138.8</v>
       </c>
       <c r="J88">
-        <v>120</v>
+        <v>120.1</v>
       </c>
       <c r="K88">
-        <v>92.5</v>
+        <v>92.3</v>
       </c>
       <c r="L88">
         <v>131</v>
@@ -8251,7 +8254,7 @@
         <v>95.8</v>
       </c>
       <c r="R88">
-        <v>113</v>
+        <v>113.1</v>
       </c>
       <c r="S88">
         <v>131.6</v>
@@ -8260,10 +8263,10 @@
         <v>126.6</v>
       </c>
       <c r="U88">
-        <v>127.4</v>
+        <v>127.3</v>
       </c>
       <c r="V88">
-        <v>125.3</v>
+        <v>125.1</v>
       </c>
       <c r="W88">
         <v>137.4</v>
@@ -8281,7 +8284,7 @@
         <v>107.1</v>
       </c>
       <c r="AB88">
-        <v>123.9</v>
+        <v>123.8</v>
       </c>
       <c r="AC88">
         <v>129.8</v>
@@ -8290,16 +8293,16 @@
         <v>122.8</v>
       </c>
       <c r="AE88">
-        <v>125.2</v>
+        <v>125.3</v>
       </c>
       <c r="AF88">
         <v>121.2</v>
       </c>
       <c r="AG88">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="AH88">
-        <v>123</v>
+        <v>122.9</v>
       </c>
     </row>
     <row r="89" spans="1:34">
@@ -8307,7 +8310,7 @@
         <v>121</v>
       </c>
       <c r="B89">
-        <v>136.7</v>
+        <v>136.6</v>
       </c>
       <c r="C89">
         <v>158.8</v>
@@ -8322,7 +8325,7 @@
         <v>115.6</v>
       </c>
       <c r="G89">
-        <v>119.8</v>
+        <v>119.9</v>
       </c>
       <c r="H89">
         <v>129.5</v>
@@ -8331,10 +8334,10 @@
         <v>132.7</v>
       </c>
       <c r="J89">
-        <v>123.1</v>
+        <v>123</v>
       </c>
       <c r="K89">
-        <v>87.90000000000001</v>
+        <v>88</v>
       </c>
       <c r="L89">
         <v>126.4</v>
@@ -8355,7 +8358,7 @@
         <v>95.09999999999999</v>
       </c>
       <c r="R89">
-        <v>112.3</v>
+        <v>112.4</v>
       </c>
       <c r="S89">
         <v>133.6</v>
@@ -8370,7 +8373,7 @@
         <v>127.1</v>
       </c>
       <c r="W89">
-        <v>139.8</v>
+        <v>139.9</v>
       </c>
       <c r="X89">
         <v>113.7</v>
@@ -8391,16 +8394,16 @@
         <v>131.3</v>
       </c>
       <c r="AD89">
-        <v>123.3</v>
+        <v>123.1</v>
       </c>
       <c r="AE89">
-        <v>125.9</v>
+        <v>126</v>
       </c>
       <c r="AF89">
         <v>122.2</v>
       </c>
       <c r="AG89">
-        <v>121.5</v>
+        <v>121.6</v>
       </c>
       <c r="AH89">
         <v>123.2</v>
@@ -8411,7 +8414,7 @@
         <v>122</v>
       </c>
       <c r="B90">
-        <v>131.8</v>
+        <v>131.5</v>
       </c>
       <c r="C90">
         <v>103.1</v>
@@ -8429,16 +8432,16 @@
         <v>124.6</v>
       </c>
       <c r="H90">
-        <v>134.8</v>
+        <v>134.6</v>
       </c>
       <c r="I90">
-        <v>139.2</v>
+        <v>139.1</v>
       </c>
       <c r="J90">
-        <v>125.2</v>
+        <v>125</v>
       </c>
       <c r="K90">
-        <v>87.2</v>
+        <v>87.7</v>
       </c>
       <c r="L90">
         <v>123.2</v>
@@ -8456,10 +8459,10 @@
         <v>97.3</v>
       </c>
       <c r="Q90">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="R90">
-        <v>111.3</v>
+        <v>111.1</v>
       </c>
       <c r="S90">
         <v>130.5</v>
@@ -8468,10 +8471,10 @@
         <v>129.9</v>
       </c>
       <c r="U90">
-        <v>131</v>
+        <v>131.2</v>
       </c>
       <c r="V90">
-        <v>128.9</v>
+        <v>129.1</v>
       </c>
       <c r="W90">
         <v>141</v>
@@ -8480,31 +8483,31 @@
         <v>112.6</v>
       </c>
       <c r="Y90">
-        <v>89.09999999999999</v>
+        <v>89.3</v>
       </c>
       <c r="Z90">
-        <v>120.8</v>
+        <v>120.9</v>
       </c>
       <c r="AA90">
         <v>110.4</v>
       </c>
       <c r="AB90">
-        <v>125.9</v>
+        <v>126.1</v>
       </c>
       <c r="AC90">
         <v>134.3</v>
       </c>
       <c r="AD90">
-        <v>126.4</v>
+        <v>126.3</v>
       </c>
       <c r="AE90">
-        <v>128.7</v>
+        <v>128.5</v>
       </c>
       <c r="AF90">
         <v>123.1</v>
       </c>
       <c r="AG90">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="AH90">
         <v>123.4</v>
@@ -8515,7 +8518,7 @@
         <v>123</v>
       </c>
       <c r="B91">
-        <v>126.7</v>
+        <v>127.3</v>
       </c>
       <c r="C91">
         <v>98.5</v>
@@ -8533,16 +8536,16 @@
         <v>128.5</v>
       </c>
       <c r="H91">
-        <v>142.1</v>
+        <v>142.3</v>
       </c>
       <c r="I91">
-        <v>147.9</v>
+        <v>148.2</v>
       </c>
       <c r="J91">
-        <v>129.7</v>
+        <v>129.9</v>
       </c>
       <c r="K91">
-        <v>88.2</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="L91">
         <v>131.7</v>
@@ -8551,7 +8554,7 @@
         <v>184.3</v>
       </c>
       <c r="N91">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="O91">
         <v>125.6</v>
@@ -8560,16 +8563,16 @@
         <v>96.59999999999999</v>
       </c>
       <c r="Q91">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="R91">
-        <v>112.9</v>
+        <v>112.7</v>
       </c>
       <c r="S91">
         <v>126.9</v>
       </c>
       <c r="T91">
-        <v>132.7</v>
+        <v>132.6</v>
       </c>
       <c r="U91">
         <v>131.8</v>
@@ -8584,22 +8587,22 @@
         <v>118.7</v>
       </c>
       <c r="Y91">
-        <v>89.2</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="Z91">
-        <v>121.7</v>
+        <v>121.6</v>
       </c>
       <c r="AA91">
         <v>110.6</v>
       </c>
       <c r="AB91">
-        <v>127.3</v>
+        <v>127.1</v>
       </c>
       <c r="AC91">
-        <v>136.9</v>
+        <v>137</v>
       </c>
       <c r="AD91">
-        <v>126.6</v>
+        <v>126.9</v>
       </c>
       <c r="AE91">
         <v>128.7</v>
@@ -8608,10 +8611,10 @@
         <v>124.8</v>
       </c>
       <c r="AG91">
-        <v>95.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AH91">
-        <v>124.3</v>
+        <v>124.4</v>
       </c>
     </row>
     <row r="92" spans="1:34">
@@ -8646,7 +8649,7 @@
         <v>133.5</v>
       </c>
       <c r="K92">
-        <v>82.8</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="L92">
         <v>129.7</v>
@@ -8658,16 +8661,16 @@
         <v>109.4</v>
       </c>
       <c r="O92">
-        <v>130</v>
+        <v>130.1</v>
       </c>
       <c r="P92">
         <v>98.90000000000001</v>
       </c>
       <c r="Q92">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="R92">
-        <v>114.5</v>
+        <v>114.6</v>
       </c>
       <c r="S92">
         <v>129.9</v>
@@ -8676,10 +8679,10 @@
         <v>134.3</v>
       </c>
       <c r="U92">
-        <v>130.9</v>
+        <v>130.7</v>
       </c>
       <c r="V92">
-        <v>128</v>
+        <v>127.8</v>
       </c>
       <c r="W92">
         <v>144.5</v>
@@ -8691,13 +8694,13 @@
         <v>88.2</v>
       </c>
       <c r="Z92">
-        <v>121.7</v>
+        <v>121.6</v>
       </c>
       <c r="AA92">
         <v>108.8</v>
       </c>
       <c r="AB92">
-        <v>128.2</v>
+        <v>128.1</v>
       </c>
       <c r="AC92">
         <v>138.8</v>
@@ -8712,7 +8715,7 @@
         <v>126.3</v>
       </c>
       <c r="AG92">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="AH92">
         <v>125</v>
@@ -8723,7 +8726,7 @@
         <v>125</v>
       </c>
       <c r="B93">
-        <v>128.8</v>
+        <v>128.5</v>
       </c>
       <c r="C93">
         <v>168.7</v>
@@ -8738,19 +8741,19 @@
         <v>129.9</v>
       </c>
       <c r="G93">
-        <v>126.2</v>
+        <v>126.3</v>
       </c>
       <c r="H93">
         <v>135.2</v>
       </c>
       <c r="I93">
-        <v>133.1</v>
+        <v>133</v>
       </c>
       <c r="J93">
         <v>138.8</v>
       </c>
       <c r="K93">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="L93">
         <v>131.9</v>
@@ -8759,25 +8762,25 @@
         <v>191.9</v>
       </c>
       <c r="N93">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
       <c r="O93">
-        <v>125.7</v>
+        <v>125.9</v>
       </c>
       <c r="P93">
         <v>98.3</v>
       </c>
       <c r="Q93">
-        <v>97.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="R93">
-        <v>115.4</v>
+        <v>115.7</v>
       </c>
       <c r="S93">
         <v>124.8</v>
       </c>
       <c r="T93">
-        <v>136</v>
+        <v>136.1</v>
       </c>
       <c r="U93">
         <v>131.7</v>
@@ -8786,7 +8789,7 @@
         <v>128.7</v>
       </c>
       <c r="W93">
-        <v>146.1</v>
+        <v>146.2</v>
       </c>
       <c r="X93">
         <v>111.7</v>
@@ -8807,13 +8810,13 @@
         <v>138</v>
       </c>
       <c r="AD93">
-        <v>127.5</v>
+        <v>127.3</v>
       </c>
       <c r="AE93">
-        <v>131.2</v>
+        <v>131.4</v>
       </c>
       <c r="AF93">
-        <v>126.7</v>
+        <v>126.6</v>
       </c>
       <c r="AG93">
         <v>142.5</v>
@@ -8827,7 +8830,7 @@
         <v>126</v>
       </c>
       <c r="B94">
-        <v>137.2</v>
+        <v>136.4</v>
       </c>
       <c r="C94">
         <v>125</v>
@@ -8842,19 +8845,19 @@
         <v>132.4</v>
       </c>
       <c r="G94">
-        <v>128.6</v>
+        <v>128.4</v>
       </c>
       <c r="H94">
-        <v>145.1</v>
+        <v>144.7</v>
       </c>
       <c r="I94">
-        <v>146.2</v>
+        <v>145.7</v>
       </c>
       <c r="J94">
-        <v>141.9</v>
+        <v>141.8</v>
       </c>
       <c r="K94">
-        <v>82.7</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="L94">
         <v>122.5</v>
@@ -8863,58 +8866,58 @@
         <v>164.2</v>
       </c>
       <c r="N94">
-        <v>109.6</v>
+        <v>109.7</v>
       </c>
       <c r="O94">
-        <v>137</v>
+        <v>137.4</v>
       </c>
       <c r="P94">
         <v>95.5</v>
       </c>
       <c r="Q94">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="R94">
-        <v>117.4</v>
+        <v>117.3</v>
       </c>
       <c r="S94">
-        <v>125.5</v>
+        <v>125.4</v>
       </c>
       <c r="T94">
         <v>138.2</v>
       </c>
       <c r="U94">
-        <v>132</v>
+        <v>132.3</v>
       </c>
       <c r="V94">
-        <v>128.2</v>
+        <v>128.5</v>
       </c>
       <c r="W94">
-        <v>150.4</v>
+        <v>150.3</v>
       </c>
       <c r="X94">
         <v>116.3</v>
       </c>
       <c r="Y94">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="Z94">
-        <v>121</v>
+        <v>121.2</v>
       </c>
       <c r="AA94">
         <v>103.6</v>
       </c>
       <c r="AB94">
-        <v>129.9</v>
+        <v>130.3</v>
       </c>
       <c r="AC94">
-        <v>138.3</v>
+        <v>138.4</v>
       </c>
       <c r="AD94">
-        <v>129.8</v>
+        <v>129.6</v>
       </c>
       <c r="AE94">
-        <v>132.3</v>
+        <v>132</v>
       </c>
       <c r="AF94">
         <v>122.5</v>
@@ -8931,7 +8934,7 @@
         <v>127</v>
       </c>
       <c r="B95">
-        <v>130.3</v>
+        <v>131.3</v>
       </c>
       <c r="C95">
         <v>108.3</v>
@@ -8949,16 +8952,16 @@
         <v>126.6</v>
       </c>
       <c r="H95">
-        <v>149</v>
+        <v>149.4</v>
       </c>
       <c r="I95">
-        <v>151.9</v>
+        <v>152.4</v>
       </c>
       <c r="J95">
-        <v>142.3</v>
+        <v>142.4</v>
       </c>
       <c r="K95">
-        <v>81.5</v>
+        <v>80.8</v>
       </c>
       <c r="L95">
         <v>126.1</v>
@@ -8970,25 +8973,25 @@
         <v>98.40000000000001</v>
       </c>
       <c r="O95">
-        <v>105.9</v>
+        <v>106.2</v>
       </c>
       <c r="P95">
         <v>95.40000000000001</v>
       </c>
       <c r="Q95">
-        <v>92.09999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="R95">
-        <v>118.2</v>
+        <v>118</v>
       </c>
       <c r="S95">
         <v>133.5</v>
       </c>
       <c r="T95">
-        <v>139.7</v>
+        <v>139.5</v>
       </c>
       <c r="U95">
-        <v>130.6</v>
+        <v>130.5</v>
       </c>
       <c r="V95">
         <v>126.4</v>
@@ -9000,25 +9003,25 @@
         <v>122.8</v>
       </c>
       <c r="Y95">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="Z95">
-        <v>122.4</v>
+        <v>122.2</v>
       </c>
       <c r="AA95">
         <v>102.2</v>
       </c>
       <c r="AB95">
-        <v>132.9</v>
+        <v>132.6</v>
       </c>
       <c r="AC95">
         <v>140.6</v>
       </c>
       <c r="AD95">
-        <v>132.7</v>
+        <v>133.3</v>
       </c>
       <c r="AE95">
-        <v>133</v>
+        <v>133.1</v>
       </c>
       <c r="AF95">
         <v>124.3</v>
@@ -9027,7 +9030,7 @@
         <v>105.7</v>
       </c>
       <c r="AH95">
-        <v>126.4</v>
+        <v>126.5</v>
       </c>
     </row>
     <row r="96" spans="1:34">
@@ -9035,7 +9038,7 @@
         <v>128</v>
       </c>
       <c r="B96">
-        <v>125.1</v>
+        <v>125.3</v>
       </c>
       <c r="C96">
         <v>146.5</v>
@@ -9050,19 +9053,19 @@
         <v>125.4</v>
       </c>
       <c r="G96">
-        <v>123.8</v>
+        <v>123.9</v>
       </c>
       <c r="H96">
-        <v>142.2</v>
+        <v>142.3</v>
       </c>
       <c r="I96">
         <v>141.5</v>
       </c>
       <c r="J96">
-        <v>143.6</v>
+        <v>143.7</v>
       </c>
       <c r="K96">
-        <v>80.7</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="L96">
         <v>128.8</v>
@@ -9071,10 +9074,10 @@
         <v>129.2</v>
       </c>
       <c r="N96">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="O96">
-        <v>116.9</v>
+        <v>117.1</v>
       </c>
       <c r="P96">
         <v>98.09999999999999</v>
@@ -9083,7 +9086,7 @@
         <v>96.5</v>
       </c>
       <c r="R96">
-        <v>117.5</v>
+        <v>117.6</v>
       </c>
       <c r="S96">
         <v>145.7</v>
@@ -9092,10 +9095,10 @@
         <v>140.8</v>
       </c>
       <c r="U96">
-        <v>129.3</v>
+        <v>129.1</v>
       </c>
       <c r="V96">
-        <v>124.8</v>
+        <v>124.5</v>
       </c>
       <c r="W96">
         <v>150.7</v>
@@ -9107,13 +9110,13 @@
         <v>82.2</v>
       </c>
       <c r="Z96">
-        <v>122.8</v>
+        <v>122.7</v>
       </c>
       <c r="AA96">
         <v>101.8</v>
       </c>
       <c r="AB96">
-        <v>133.7</v>
+        <v>133.6</v>
       </c>
       <c r="AC96">
         <v>142.1</v>
@@ -9122,16 +9125,16 @@
         <v>133.4</v>
       </c>
       <c r="AE96">
-        <v>133</v>
+        <v>133.1</v>
       </c>
       <c r="AF96">
         <v>125.5</v>
       </c>
       <c r="AG96">
-        <v>125</v>
+        <v>125.1</v>
       </c>
       <c r="AH96">
-        <v>126.9</v>
+        <v>126.8</v>
       </c>
     </row>
     <row r="97" spans="1:34">
@@ -9139,7 +9142,7 @@
         <v>129</v>
       </c>
       <c r="B97">
-        <v>137.4</v>
+        <v>137</v>
       </c>
       <c r="C97">
         <v>191.5</v>
@@ -9154,19 +9157,19 @@
         <v>133</v>
       </c>
       <c r="G97">
-        <v>122.3</v>
+        <v>122.4</v>
       </c>
       <c r="H97">
         <v>140.1</v>
       </c>
       <c r="I97">
-        <v>136.1</v>
+        <v>136</v>
       </c>
       <c r="J97">
-        <v>148.3</v>
+        <v>148.2</v>
       </c>
       <c r="K97">
-        <v>75</v>
+        <v>75.2</v>
       </c>
       <c r="L97">
         <v>135</v>
@@ -9178,22 +9181,22 @@
         <v>99.90000000000001</v>
       </c>
       <c r="O97">
-        <v>108.3</v>
+        <v>108.2</v>
       </c>
       <c r="P97">
         <v>96.59999999999999</v>
       </c>
       <c r="Q97">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="R97">
-        <v>116.9</v>
+        <v>117.3</v>
       </c>
       <c r="S97">
         <v>149.9</v>
       </c>
       <c r="T97">
-        <v>141.6</v>
+        <v>141.7</v>
       </c>
       <c r="U97">
         <v>130.6</v>
@@ -9202,7 +9205,7 @@
         <v>126.3</v>
       </c>
       <c r="W97">
-        <v>151</v>
+        <v>151.1</v>
       </c>
       <c r="X97">
         <v>117.2</v>
@@ -9223,16 +9226,16 @@
         <v>142.1</v>
       </c>
       <c r="AD97">
-        <v>147.2</v>
+        <v>146.9</v>
       </c>
       <c r="AE97">
-        <v>134.7</v>
+        <v>134.9</v>
       </c>
       <c r="AF97">
         <v>127.2</v>
       </c>
       <c r="AG97">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="AH97">
         <v>129.1</v>
@@ -9243,10 +9246,10 @@
         <v>130</v>
       </c>
       <c r="B98">
-        <v>154.9</v>
+        <v>153.6</v>
       </c>
       <c r="C98">
-        <v>137.2</v>
+        <v>137.3</v>
       </c>
       <c r="D98">
         <v>129.7</v>
@@ -9258,19 +9261,19 @@
         <v>141.8</v>
       </c>
       <c r="G98">
-        <v>128.9</v>
+        <v>128.5</v>
       </c>
       <c r="H98">
-        <v>149.9</v>
+        <v>149.3</v>
       </c>
       <c r="I98">
-        <v>149.4</v>
+        <v>148.7</v>
       </c>
       <c r="J98">
-        <v>150.3</v>
+        <v>150.2</v>
       </c>
       <c r="K98">
-        <v>66</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="L98">
         <v>141.7</v>
@@ -9279,64 +9282,64 @@
         <v>136.5</v>
       </c>
       <c r="N98">
-        <v>110</v>
+        <v>109.8</v>
       </c>
       <c r="O98">
-        <v>135.8</v>
+        <v>135.2</v>
       </c>
       <c r="P98">
         <v>97.90000000000001</v>
       </c>
       <c r="Q98">
-        <v>89.09999999999999</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="R98">
-        <v>118</v>
+        <v>117.7</v>
       </c>
       <c r="S98">
         <v>145.6</v>
       </c>
       <c r="T98">
-        <v>141.8</v>
+        <v>141.9</v>
       </c>
       <c r="U98">
-        <v>132.7</v>
+        <v>133.1</v>
       </c>
       <c r="V98">
-        <v>128.6</v>
+        <v>129.1</v>
       </c>
       <c r="W98">
-        <v>152.1</v>
+        <v>151.9</v>
       </c>
       <c r="X98">
         <v>116.4</v>
       </c>
       <c r="Y98">
-        <v>77.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="Z98">
-        <v>123.8</v>
+        <v>124.1</v>
       </c>
       <c r="AA98">
         <v>102.7</v>
       </c>
       <c r="AB98">
-        <v>134.8</v>
+        <v>135.3</v>
       </c>
       <c r="AC98">
-        <v>142.6</v>
+        <v>142.7</v>
       </c>
       <c r="AD98">
-        <v>144.7</v>
+        <v>144.3</v>
       </c>
       <c r="AE98">
-        <v>133.1</v>
+        <v>132.6</v>
       </c>
       <c r="AF98">
-        <v>128.6</v>
+        <v>128.7</v>
       </c>
       <c r="AG98">
-        <v>148.5</v>
+        <v>148.7</v>
       </c>
       <c r="AH98">
         <v>131.1</v>
@@ -9347,10 +9350,10 @@
         <v>131</v>
       </c>
       <c r="B99">
-        <v>160.9</v>
+        <v>162.7</v>
       </c>
       <c r="C99">
-        <v>87.5</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="D99">
         <v>160</v>
@@ -9362,19 +9365,19 @@
         <v>171.7</v>
       </c>
       <c r="G99">
-        <v>137</v>
+        <v>137.4</v>
       </c>
       <c r="H99">
-        <v>154.3</v>
+        <v>155</v>
       </c>
       <c r="I99">
-        <v>155.3</v>
+        <v>156.1</v>
       </c>
       <c r="J99">
-        <v>151</v>
+        <v>151.4</v>
       </c>
       <c r="K99">
-        <v>66.59999999999999</v>
+        <v>65.7</v>
       </c>
       <c r="L99">
         <v>143.5</v>
@@ -9383,67 +9386,67 @@
         <v>134.9</v>
       </c>
       <c r="N99">
-        <v>138.6</v>
+        <v>139.2</v>
       </c>
       <c r="O99">
-        <v>254.4</v>
+        <v>252.7</v>
       </c>
       <c r="P99">
         <v>96.40000000000001</v>
       </c>
       <c r="Q99">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="R99">
-        <v>119.6</v>
+        <v>119.2</v>
       </c>
       <c r="S99">
         <v>143.1</v>
       </c>
       <c r="T99">
-        <v>141.8</v>
+        <v>141.6</v>
       </c>
       <c r="U99">
-        <v>136.5</v>
+        <v>136.3</v>
       </c>
       <c r="V99">
-        <v>132.5</v>
+        <v>132.4</v>
       </c>
       <c r="W99">
-        <v>153.7</v>
+        <v>153.8</v>
       </c>
       <c r="X99">
         <v>135.6</v>
       </c>
       <c r="Y99">
-        <v>73.5</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="Z99">
-        <v>122.3</v>
+        <v>122</v>
       </c>
       <c r="AA99">
         <v>101.1</v>
       </c>
       <c r="AB99">
-        <v>133.4</v>
+        <v>132.9</v>
       </c>
       <c r="AC99">
         <v>142.5</v>
       </c>
       <c r="AD99">
-        <v>168.6</v>
+        <v>169.9</v>
       </c>
       <c r="AE99">
-        <v>133.5</v>
+        <v>133.6</v>
       </c>
       <c r="AF99">
-        <v>129.2</v>
+        <v>129.3</v>
       </c>
       <c r="AG99">
-        <v>181.2</v>
+        <v>181.4</v>
       </c>
       <c r="AH99">
-        <v>138.6</v>
+        <v>138.8</v>
       </c>
     </row>
     <row r="100" spans="1:34">
@@ -9451,10 +9454,10 @@
         <v>132</v>
       </c>
       <c r="B100">
-        <v>159.4</v>
+        <v>159.7</v>
       </c>
       <c r="C100">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="D100">
         <v>173.8</v>
@@ -9466,7 +9469,7 @@
         <v>159.1</v>
       </c>
       <c r="G100">
-        <v>130.3</v>
+        <v>130.2</v>
       </c>
       <c r="H100">
         <v>144.5</v>
@@ -9475,10 +9478,10 @@
         <v>142.9</v>
       </c>
       <c r="J100">
-        <v>147.3</v>
+        <v>147.4</v>
       </c>
       <c r="K100">
-        <v>68.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="L100">
         <v>121.7</v>
@@ -9487,10 +9490,10 @@
         <v>137.6</v>
       </c>
       <c r="N100">
-        <v>129.6</v>
+        <v>129</v>
       </c>
       <c r="O100">
-        <v>205</v>
+        <v>203.5</v>
       </c>
       <c r="P100">
         <v>100.4</v>
@@ -9499,19 +9502,19 @@
         <v>91.2</v>
       </c>
       <c r="R100">
-        <v>119.7</v>
+        <v>119.8</v>
       </c>
       <c r="S100">
-        <v>147.4</v>
+        <v>147.3</v>
       </c>
       <c r="T100">
         <v>144.4</v>
       </c>
       <c r="U100">
-        <v>139.9</v>
+        <v>139.6</v>
       </c>
       <c r="V100">
-        <v>136.2</v>
+        <v>135.7</v>
       </c>
       <c r="W100">
         <v>155.3</v>
@@ -9523,31 +9526,31 @@
         <v>74.09999999999999</v>
       </c>
       <c r="Z100">
-        <v>123.6</v>
+        <v>123.5</v>
       </c>
       <c r="AA100">
         <v>101.8</v>
       </c>
       <c r="AB100">
-        <v>135.1</v>
+        <v>134.9</v>
       </c>
       <c r="AC100">
-        <v>140.5</v>
+        <v>140.4</v>
       </c>
       <c r="AD100">
-        <v>166.2</v>
+        <v>166</v>
       </c>
       <c r="AE100">
-        <v>133.4</v>
+        <v>133.6</v>
       </c>
       <c r="AF100">
         <v>130.2</v>
       </c>
       <c r="AG100">
-        <v>115.6</v>
+        <v>115.7</v>
       </c>
       <c r="AH100">
-        <v>139.7</v>
+        <v>139.6</v>
       </c>
     </row>
     <row r="101" spans="1:34">
@@ -9555,10 +9558,10 @@
         <v>133</v>
       </c>
       <c r="B101">
-        <v>157.4</v>
+        <v>156.7</v>
       </c>
       <c r="C101">
-        <v>108.6</v>
+        <v>108.7</v>
       </c>
       <c r="D101">
         <v>187.3</v>
@@ -9570,7 +9573,7 @@
         <v>176.4</v>
       </c>
       <c r="G101">
-        <v>122</v>
+        <v>122.1</v>
       </c>
       <c r="H101">
         <v>135.2</v>
@@ -9579,10 +9582,10 @@
         <v>131.4</v>
       </c>
       <c r="J101">
-        <v>143.2</v>
+        <v>143</v>
       </c>
       <c r="K101">
-        <v>70.8</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="L101">
         <v>141.7</v>
@@ -9591,25 +9594,25 @@
         <v>143.9</v>
       </c>
       <c r="N101">
-        <v>101.3</v>
+        <v>101</v>
       </c>
       <c r="O101">
-        <v>106.6</v>
+        <v>105.9</v>
       </c>
       <c r="P101">
         <v>99.2</v>
       </c>
       <c r="Q101">
-        <v>93.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="R101">
-        <v>118.7</v>
+        <v>119.3</v>
       </c>
       <c r="S101">
         <v>151</v>
       </c>
       <c r="T101">
-        <v>146.3</v>
+        <v>146.4</v>
       </c>
       <c r="U101">
         <v>140.9</v>
@@ -9618,7 +9621,7 @@
         <v>137.3</v>
       </c>
       <c r="W101">
-        <v>156</v>
+        <v>156.1</v>
       </c>
       <c r="X101">
         <v>137.7</v>
@@ -9627,28 +9630,28 @@
         <v>75.3</v>
       </c>
       <c r="Z101">
-        <v>125.7</v>
+        <v>125.8</v>
       </c>
       <c r="AA101">
         <v>104.7</v>
       </c>
       <c r="AB101">
-        <v>136.7</v>
+        <v>136.8</v>
       </c>
       <c r="AC101">
         <v>141.4</v>
       </c>
       <c r="AD101">
-        <v>163.4</v>
+        <v>162.8</v>
       </c>
       <c r="AE101">
-        <v>134.1</v>
+        <v>134.4</v>
       </c>
       <c r="AF101">
+        <v>131.7</v>
+      </c>
+      <c r="AG101">
         <v>131.8</v>
-      </c>
-      <c r="AG101">
-        <v>131.7</v>
       </c>
       <c r="AH101">
         <v>140.7</v>
@@ -9659,103 +9662,207 @@
         <v>134</v>
       </c>
       <c r="B102">
-        <v>157</v>
+        <v>154.8</v>
       </c>
       <c r="C102">
-        <v>83.90000000000001</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="D102">
-        <v>217.1</v>
+        <v>223.2</v>
       </c>
       <c r="E102">
-        <v>221.3</v>
+        <v>228.2</v>
       </c>
       <c r="F102">
-        <v>182</v>
+        <v>181.5</v>
       </c>
       <c r="G102">
-        <v>129.3</v>
+        <v>128.7</v>
       </c>
       <c r="H102">
-        <v>146.4</v>
+        <v>145.6</v>
       </c>
       <c r="I102">
-        <v>147.2</v>
+        <v>146.7</v>
       </c>
       <c r="J102">
-        <v>144.2</v>
+        <v>143</v>
       </c>
       <c r="K102">
-        <v>67.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="L102">
-        <v>172.6</v>
+        <v>173.4</v>
       </c>
       <c r="M102">
-        <v>134.4</v>
+        <v>133.2</v>
       </c>
       <c r="N102">
-        <v>112</v>
+        <v>108.9</v>
       </c>
       <c r="O102">
-        <v>117.5</v>
+        <v>107.6</v>
       </c>
       <c r="P102">
         <v>110.3</v>
       </c>
       <c r="Q102">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="R102">
-        <v>114.3</v>
+        <v>116.5</v>
       </c>
       <c r="S102">
-        <v>146.3</v>
+        <v>146</v>
       </c>
       <c r="T102">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U102">
-        <v>144</v>
+        <v>144.1</v>
       </c>
       <c r="V102">
         <v>140.7</v>
       </c>
       <c r="W102">
+        <v>157.8</v>
+      </c>
+      <c r="X102">
+        <v>136.8</v>
+      </c>
+      <c r="Y102">
+        <v>76.5</v>
+      </c>
+      <c r="Z102">
+        <v>128.2</v>
+      </c>
+      <c r="AA102">
+        <v>110.5</v>
+      </c>
+      <c r="AB102">
+        <v>137.2</v>
+      </c>
+      <c r="AC102">
+        <v>142</v>
+      </c>
+      <c r="AD102">
+        <v>147.5</v>
+      </c>
+      <c r="AE102">
+        <v>133.7</v>
+      </c>
+      <c r="AF102">
+        <v>133.7</v>
+      </c>
+      <c r="AG102">
+        <v>105.4</v>
+      </c>
+      <c r="AH102">
+        <v>143.9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34">
+      <c r="A103" t="s">
+        <v>135</v>
+      </c>
+      <c r="B103">
         <v>157.5</v>
       </c>
-      <c r="X102">
-        <v>136.2</v>
-      </c>
-      <c r="Y102">
-        <v>76</v>
-      </c>
-      <c r="Z102">
-        <v>127.7</v>
-      </c>
-      <c r="AA102">
-        <v>110.4</v>
-      </c>
-      <c r="AB102">
-        <v>136.6</v>
-      </c>
-      <c r="AC102">
-        <v>142.4</v>
-      </c>
-      <c r="AD102">
-        <v>148.7</v>
-      </c>
-      <c r="AE102">
-        <v>133.4</v>
-      </c>
-      <c r="AF102">
+      <c r="C103">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="D103">
+        <v>230.8</v>
+      </c>
+      <c r="E103">
+        <v>234.5</v>
+      </c>
+      <c r="F103">
+        <v>200.8</v>
+      </c>
+      <c r="G103">
+        <v>137.5</v>
+      </c>
+      <c r="H103">
+        <v>152.4</v>
+      </c>
+      <c r="I103">
+        <v>155.7</v>
+      </c>
+      <c r="J103">
+        <v>145.9</v>
+      </c>
+      <c r="K103">
+        <v>69.2</v>
+      </c>
+      <c r="L103">
+        <v>174.8</v>
+      </c>
+      <c r="M103">
+        <v>150.8</v>
+      </c>
+      <c r="N103">
+        <v>125.9</v>
+      </c>
+      <c r="O103">
+        <v>147</v>
+      </c>
+      <c r="P103">
+        <v>116.8</v>
+      </c>
+      <c r="Q103">
+        <v>121.4</v>
+      </c>
+      <c r="R103">
+        <v>114.1</v>
+      </c>
+      <c r="S103">
+        <v>138.7</v>
+      </c>
+      <c r="T103">
+        <v>153.3</v>
+      </c>
+      <c r="U103">
+        <v>147.6</v>
+      </c>
+      <c r="V103">
+        <v>144.5</v>
+      </c>
+      <c r="W103">
+        <v>159.1</v>
+      </c>
+      <c r="X103">
+        <v>137.2</v>
+      </c>
+      <c r="Y103">
+        <v>76.5</v>
+      </c>
+      <c r="Z103">
+        <v>129.6</v>
+      </c>
+      <c r="AA103">
+        <v>111.2</v>
+      </c>
+      <c r="AB103">
+        <v>139</v>
+      </c>
+      <c r="AC103">
+        <v>142.6</v>
+      </c>
+      <c r="AD103">
+        <v>160.7</v>
+      </c>
+      <c r="AE103">
         <v>134.2</v>
       </c>
-      <c r="AG102">
-        <v>106.5</v>
-      </c>
-      <c r="AH102">
-        <v>143.5</v>
+      <c r="AF103">
+        <v>134.8</v>
+      </c>
+      <c r="AG103">
+        <v>122.3</v>
+      </c>
+      <c r="AH103">
+        <v>148.2</v>
       </c>
     </row>
   </sheetData>
